--- a/6-1/マトリクス表（機能要件）.xlsx
+++ b/6-1/マトリクス表（機能要件）.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="hw9dah5xSXHht6ni4hENTMFHfuR3TFpUXIE3agsEdPA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="UF3rihjGUIhzfPwJGOE8lOGvTXaxHn1sZ4QvRw2+wd8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -36,140 +36,151 @@
     <t>備考</t>
   </si>
   <si>
-    <t>ログインする</t>
-  </si>
-  <si>
-    <t>登録済みのユーザーがログインする</t>
-  </si>
-  <si>
-    <t>・ユーザーID
-・パスワード</t>
-  </si>
-  <si>
-    <t>利用者, 管理者</t>
+    <t>ログイン</t>
+  </si>
+  <si>
+    <t>登録ユーザーがログインできる</t>
+  </si>
+  <si>
+    <t>ユーザーID、パスワード</t>
+  </si>
+  <si>
+    <t>利用者、管理者</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>ログアウトする</t>
-  </si>
-  <si>
-    <t>ユーザーがシステムからログアウトする</t>
-  </si>
-  <si>
-    <t>パスワードをリセットする</t>
-  </si>
-  <si>
-    <t>ユーザーがパスワードをリセットする</t>
-  </si>
-  <si>
-    <t>・メールアドレス</t>
-  </si>
-  <si>
-    <t>ユーザーを登録する</t>
-  </si>
-  <si>
-    <t>新規ユーザーを登録する</t>
-  </si>
-  <si>
-    <t>・ユーザーID
-・メールアドレス 他</t>
-  </si>
-  <si>
-    <t>ユーザーを編集する</t>
-  </si>
-  <si>
-    <t>登録済みのユーザー情報を変更する</t>
-  </si>
-  <si>
-    <t>・ユーザー名
-・メールアドレス 他</t>
-  </si>
-  <si>
-    <t>管理者のみ他ユーザーの情報を編集可能</t>
+    <t>ログアウト</t>
+  </si>
+  <si>
+    <t>ユーザーがログアウトできる</t>
+  </si>
+  <si>
+    <t>パスワードリセット</t>
+  </si>
+  <si>
+    <t>ユーザーがパスワードをリセットできる</t>
+  </si>
+  <si>
+    <t>ユーザー登録</t>
+  </si>
+  <si>
+    <t>新しいユーザーを登録する</t>
+  </si>
+  <si>
+    <t>ユーザー情報</t>
+  </si>
+  <si>
+    <t>管理者</t>
+  </si>
+  <si>
+    <t>ユーザー編集</t>
+  </si>
+  <si>
+    <t>既存ユーザー情報を更新する</t>
+  </si>
+  <si>
+    <t>ユーザー削除</t>
   </si>
   <si>
     <t>ユーザーを削除する</t>
   </si>
   <si>
-    <t>ユーザーアカウントを削除する</t>
-  </si>
-  <si>
-    <t>・ユーザーID</t>
-  </si>
-  <si>
-    <t>管理者</t>
-  </si>
-  <si>
-    <t>収支データを登録する</t>
-  </si>
-  <si>
-    <t>収支情報を新規登録する</t>
-  </si>
-  <si>
-    <t>・収入・支出
-・カテゴリ</t>
+    <t>ユーザー一覧表示</t>
+  </si>
+  <si>
+    <t>登録済みのユーザーを一覧表示</t>
+  </si>
+  <si>
+    <t>収支データ登録</t>
+  </si>
+  <si>
+    <t>収入や支出のデータを登録</t>
+  </si>
+  <si>
+    <t>収支データ</t>
   </si>
   <si>
     <t>利用者</t>
   </si>
   <si>
-    <t>収支データを編集する</t>
-  </si>
-  <si>
-    <t>登録済みの収支データを変更する</t>
-  </si>
-  <si>
-    <t>収支データを削除する</t>
-  </si>
-  <si>
-    <t>収支情報を削除する</t>
-  </si>
-  <si>
-    <t>収支データを確認する</t>
-  </si>
-  <si>
-    <t>収支データを一覧表示、詳細を確認する</t>
-  </si>
-  <si>
-    <t>収支目標を登録する</t>
-  </si>
-  <si>
-    <t>ユーザーが収支目標を新規登録する</t>
-  </si>
-  <si>
-    <t>・目標金額
-・期間</t>
-  </si>
-  <si>
-    <t>収支目標を編集する</t>
-  </si>
-  <si>
-    <t>登録済みの収支目標を変更する</t>
-  </si>
-  <si>
-    <t>収支目標を削除する</t>
-  </si>
-  <si>
-    <t>収支目標を確認する</t>
-  </si>
-  <si>
-    <t>設定済みの収支目標と達成状況を確認する</t>
-  </si>
-  <si>
-    <t>・目標金額
-・達成状況</t>
-  </si>
-  <si>
-    <t>ユーザーを一覧表示する</t>
-  </si>
-  <si>
-    <t>ユーザーのリストを表示</t>
-  </si>
-  <si>
-    <t>・ユーザーID
-・登録日</t>
+    <t>収支データ編集</t>
+  </si>
+  <si>
+    <t>登録済みの収支データを編集</t>
+  </si>
+  <si>
+    <t>収支データ削除</t>
+  </si>
+  <si>
+    <t>収支データを削除</t>
+  </si>
+  <si>
+    <t>収支データ一覧表示</t>
+  </si>
+  <si>
+    <t>登録済みの収支データを一覧表示</t>
+  </si>
+  <si>
+    <t>収支目標登録</t>
+  </si>
+  <si>
+    <t>ユーザーが収支目標を設定</t>
+  </si>
+  <si>
+    <t>収支目標データ</t>
+  </si>
+  <si>
+    <t>収支目標編集</t>
+  </si>
+  <si>
+    <t>収支目標の内容を変更</t>
+  </si>
+  <si>
+    <t>収支目標削除</t>
+  </si>
+  <si>
+    <t>収支目標を削除</t>
+  </si>
+  <si>
+    <t>収支目標一覧表示</t>
+  </si>
+  <si>
+    <t>設定済みの収支目標を一覧表示</t>
+  </si>
+  <si>
+    <t>収支目標詳細表示</t>
+  </si>
+  <si>
+    <t>設定済みの収支目標の詳細を表示</t>
+  </si>
+  <si>
+    <t>収支データのグラフ表示</t>
+  </si>
+  <si>
+    <t>登録済みの収支データをグラフ化して表示</t>
+  </si>
+  <si>
+    <t>折れ線グラフ・円グラフなど</t>
+  </si>
+  <si>
+    <t>収支目標のグラフ表示</t>
+  </si>
+  <si>
+    <t>設定済みの収支目標の達成率をグラフで表示</t>
+  </si>
+  <si>
+    <t>進捗率を可視化</t>
+  </si>
+  <si>
+    <t>収支目標達成状況判定</t>
+  </si>
+  <si>
+    <t>収支目標の達成状況を計算し、判定する</t>
+  </si>
+  <si>
+    <t>収支データ、収支目標データ</t>
   </si>
 </sst>
 </file>
@@ -203,228 +214,21 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF356854"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF284E3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF356854"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF356854"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF284E3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF356854"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF284E3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,7 +288,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F16" displayName="表_1" name="表_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F20" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="6">
     <tableColumn name="ID" id="1"/>
     <tableColumn name="機能名" id="2"/>
@@ -704,7 +508,6 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.63"/>
     <col customWidth="1" min="2" max="2" width="21.38"/>
     <col customWidth="1" min="3" max="3" width="34.13"/>
     <col customWidth="1" min="4" max="4" width="34.75"/>
@@ -716,326 +519,402 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>1.0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" ht="33.75" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="2">
         <v>2.0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>3.0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="2">
         <v>4.0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>5.0</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>22</v>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="2">
         <v>6.0</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>7.0</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="8">
+      <c r="A9" s="2">
         <v>8.0</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>9.0</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="8">
+      <c r="A11" s="2">
         <v>10.0</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>11.0</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="8">
+      <c r="A13" s="2">
         <v>12.0</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>13.0</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" ht="31.5" customHeight="1">
-      <c r="A15" s="8">
+      <c r="A15" s="2">
         <v>14.0</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="12">
+      <c r="A16" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="2">
         <v>16.0</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="15" t="s">
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -2014,15 +1893,14 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A16">
+      <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="E2:E16">
       <formula1>"・利用者
 ・管理者,・利用者,・管理者"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A16">
-      <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
